--- a/data/output/FV2504_FV2410/UTILMD/55043.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55043.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23266" uniqueCount="1297">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23287" uniqueCount="1297">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -4180,6 +4180,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U1465" totalsRowShown="0">
+  <autoFilter ref="A1:U1465"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4469,7 +4499,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U1465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -63927,5 +63960,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55043.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55043.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27864" uniqueCount="2740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27730" uniqueCount="2740">
   <si>
     <t>#</t>
   </si>
@@ -13436,44 +13436,42 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="2" t="s">
         <v>1379</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5" t="s">
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M91" s="5" t="s">
+      <c r="K91" s="2"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N91" s="5" t="s">
+      <c r="N91" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5" t="s">
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V91" s="5"/>
+      <c r="V91" s="2"/>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="5" t="s">
@@ -13611,9 +13609,7 @@
         <v>913</v>
       </c>
       <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>39</v>
       </c>
@@ -13640,44 +13636,42 @@
       <c r="V94" s="5"/>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5" t="s">
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M95" s="5" t="s">
+      <c r="K95" s="2"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N95" s="5" t="s">
+      <c r="N95" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5" t="s">
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V95" s="5"/>
+      <c r="V95" s="2"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -14421,9 +14415,7 @@
         <v>913</v>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>42</v>
       </c>
@@ -14735,9 +14727,7 @@
         <v>913</v>
       </c>
       <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5" t="s">
         <v>43</v>
       </c>
@@ -15171,9 +15161,7 @@
         <v>913</v>
       </c>
       <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>45</v>
       </c>
@@ -15227,9 +15215,7 @@
         <v>913</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>45</v>
       </c>
@@ -15283,9 +15269,7 @@
         <v>913</v>
       </c>
       <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>45</v>
       </c>
@@ -15739,9 +15723,7 @@
         <v>913</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>47</v>
       </c>
@@ -16000,46 +15982,44 @@
       </c>
     </row>
     <row r="140" spans="1:22">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D140" s="5"/>
-      <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5" t="s">
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="K140" s="5" t="s">
+      <c r="K140" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="L140" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M140" s="5" t="s">
+      <c r="L140" s="4"/>
+      <c r="M140" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N140" s="5" t="s">
+      <c r="N140" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5" t="s">
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="V140" s="5" t="s">
+      <c r="V140" s="2" t="s">
         <v>1078</v>
       </c>
     </row>
@@ -16320,44 +16300,42 @@
       </c>
     </row>
     <row r="146" spans="1:22">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
-      <c r="F146" s="5"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="5"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5" t="s">
+      <c r="C146" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M146" s="5" t="s">
+      <c r="K146" s="2"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N146" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5" t="s">
+      <c r="N146" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V146" s="5"/>
+      <c r="V146" s="2"/>
     </row>
     <row r="147" spans="1:22">
       <c r="A147" s="5" t="s">
@@ -16555,9 +16533,7 @@
         <v>913</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>51</v>
       </c>
@@ -16584,44 +16560,42 @@
       <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="2" t="s">
         <v>1436</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5" t="s">
+      <c r="C151" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M151" s="5" t="s">
+      <c r="K151" s="2"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N151" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-      <c r="U151" s="5" t="s">
+      <c r="N151" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O151" s="2"/>
+      <c r="P151" s="2"/>
+      <c r="Q151" s="2"/>
+      <c r="R151" s="2"/>
+      <c r="S151" s="2"/>
+      <c r="T151" s="2"/>
+      <c r="U151" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V151" s="5"/>
+      <c r="V151" s="2"/>
     </row>
     <row r="152" spans="1:22">
       <c r="A152" s="5" t="s">
@@ -16983,9 +16957,7 @@
         <v>913</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>53</v>
       </c>
@@ -17039,9 +17011,7 @@
         <v>913</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>53</v>
       </c>
@@ -17068,46 +17038,44 @@
       <c r="V159" s="5"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>1445</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5" t="s">
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="K160" s="5" t="s">
+      <c r="K160" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="L160" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M160" s="5" t="s">
+      <c r="L160" s="4"/>
+      <c r="M160" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5" t="s">
+      <c r="O160" s="2"/>
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="V160" s="5" t="s">
+      <c r="V160" s="2" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -17612,44 +17580,42 @@
       <c r="V169" s="5"/>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C170" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5" t="s">
+      <c r="C170" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M170" s="5" t="s">
+      <c r="K170" s="2"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N170" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O170" s="5"/>
-      <c r="P170" s="5"/>
-      <c r="Q170" s="5"/>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5" t="s">
+      <c r="N170" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V170" s="5"/>
+      <c r="V170" s="2"/>
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="5" t="s">
@@ -17868,44 +17834,42 @@
       <c r="V174" s="5"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C175" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5" t="s">
+      <c r="C175" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M175" s="5" t="s">
+      <c r="K175" s="2"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N175" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O175" s="5"/>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5" t="s">
+      <c r="N175" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V175" s="5"/>
+      <c r="V175" s="2"/>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="5" t="s">
@@ -18151,9 +18115,7 @@
         <v>945</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>57</v>
       </c>
@@ -18180,46 +18142,44 @@
       <c r="V180" s="5"/>
     </row>
     <row r="181" spans="1:22">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="2" t="s">
         <v>1466</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="5"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="5" t="s">
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="K181" s="5" t="s">
+      <c r="K181" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="L181" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M181" s="5" t="s">
+      <c r="L181" s="4"/>
+      <c r="M181" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N181" s="5" t="s">
+      <c r="N181" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O181" s="5"/>
-      <c r="P181" s="5"/>
-      <c r="Q181" s="5"/>
-      <c r="R181" s="5"/>
-      <c r="S181" s="5"/>
-      <c r="T181" s="5"/>
-      <c r="U181" s="5" t="s">
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="V181" s="5" t="s">
+      <c r="V181" s="2" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -18728,46 +18688,44 @@
       <c r="V190" s="5"/>
     </row>
     <row r="191" spans="1:22">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="2" t="s">
         <v>1476</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C191" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="5"/>
-      <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="5" t="s">
+      <c r="C191" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="K191" s="5" t="s">
+      <c r="K191" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="L191" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M191" s="5" t="s">
+      <c r="L191" s="4"/>
+      <c r="M191" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N191" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O191" s="5"/>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
-      <c r="U191" s="5" t="s">
+      <c r="N191" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+      <c r="Q191" s="2"/>
+      <c r="R191" s="2"/>
+      <c r="S191" s="2"/>
+      <c r="T191" s="2"/>
+      <c r="U191" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="V191" s="5" t="s">
+      <c r="V191" s="2" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -18936,44 +18894,42 @@
       <c r="V194" s="5"/>
     </row>
     <row r="195" spans="1:22">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="2" t="s">
         <v>1480</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C195" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5"/>
-      <c r="G195" s="5"/>
-      <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="5" t="s">
+      <c r="C195" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K195" s="5"/>
-      <c r="L195" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M195" s="5" t="s">
+      <c r="K195" s="2"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N195" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O195" s="5"/>
-      <c r="P195" s="5"/>
-      <c r="Q195" s="5"/>
-      <c r="R195" s="5"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
-      <c r="U195" s="5" t="s">
+      <c r="N195" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+      <c r="Q195" s="2"/>
+      <c r="R195" s="2"/>
+      <c r="S195" s="2"/>
+      <c r="T195" s="2"/>
+      <c r="U195" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V195" s="5"/>
+      <c r="V195" s="2"/>
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="5" t="s">
@@ -19219,9 +19175,7 @@
         <v>913</v>
       </c>
       <c r="K200" s="5"/>
-      <c r="L200" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L200" s="4"/>
       <c r="M200" s="5" t="s">
         <v>61</v>
       </c>
@@ -19304,44 +19258,42 @@
       <c r="V201" s="5"/>
     </row>
     <row r="202" spans="1:22">
-      <c r="A202" s="5" t="s">
+      <c r="A202" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="5" t="s">
+      <c r="C202" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K202" s="5"/>
-      <c r="L202" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M202" s="5" t="s">
+      <c r="K202" s="2"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N202" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O202" s="5"/>
-      <c r="P202" s="5"/>
-      <c r="Q202" s="5"/>
-      <c r="R202" s="5"/>
-      <c r="S202" s="5"/>
-      <c r="T202" s="5"/>
-      <c r="U202" s="5" t="s">
+      <c r="N202" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O202" s="2"/>
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V202" s="5"/>
+      <c r="V202" s="2"/>
     </row>
     <row r="203" spans="1:22">
       <c r="A203" s="5" t="s">
@@ -19479,9 +19431,7 @@
         <v>917</v>
       </c>
       <c r="K205" s="5"/>
-      <c r="L205" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L205" s="4"/>
       <c r="M205" s="5" t="s">
         <v>62</v>
       </c>
@@ -19508,46 +19458,44 @@
       <c r="V205" s="5"/>
     </row>
     <row r="206" spans="1:22">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="2" t="s">
         <v>1491</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C206" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
-      <c r="F206" s="5"/>
-      <c r="G206" s="5"/>
-      <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="5" t="s">
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+      <c r="J206" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="K206" s="5" t="s">
+      <c r="K206" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="L206" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M206" s="5" t="s">
+      <c r="L206" s="4"/>
+      <c r="M206" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N206" s="5" t="s">
+      <c r="N206" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O206" s="5"/>
-      <c r="P206" s="5"/>
-      <c r="Q206" s="5"/>
-      <c r="R206" s="5"/>
-      <c r="S206" s="5"/>
-      <c r="T206" s="5"/>
-      <c r="U206" s="5" t="s">
+      <c r="O206" s="2"/>
+      <c r="P206" s="2"/>
+      <c r="Q206" s="2"/>
+      <c r="R206" s="2"/>
+      <c r="S206" s="2"/>
+      <c r="T206" s="2"/>
+      <c r="U206" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="V206" s="5" t="s">
+      <c r="V206" s="2" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -19828,46 +19776,44 @@
       </c>
     </row>
     <row r="212" spans="1:22">
-      <c r="A212" s="5" t="s">
+      <c r="A212" s="2" t="s">
         <v>1497</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="5" t="s">
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="K212" s="5" t="s">
+      <c r="K212" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="L212" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M212" s="5" t="s">
+      <c r="L212" s="4"/>
+      <c r="M212" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N212" s="5" t="s">
+      <c r="N212" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="O212" s="5"/>
-      <c r="P212" s="5"/>
-      <c r="Q212" s="5"/>
-      <c r="R212" s="5"/>
-      <c r="S212" s="5"/>
-      <c r="T212" s="5"/>
-      <c r="U212" s="5" t="s">
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="V212" s="5" t="s">
+      <c r="V212" s="2" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -20007,9 +19953,7 @@
         <v>913</v>
       </c>
       <c r="K215" s="5"/>
-      <c r="L215" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L215" s="4"/>
       <c r="M215" s="5" t="s">
         <v>65</v>
       </c>
@@ -20185,9 +20129,7 @@
       <c r="K218" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="L218" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L218" s="4"/>
       <c r="M218" s="5" t="s">
         <v>65</v>
       </c>
@@ -20216,46 +20158,44 @@
       </c>
     </row>
     <row r="219" spans="1:22">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="2" t="s">
         <v>1504</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C219" s="5" t="s">
+      <c r="C219" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-      <c r="J219" s="5" t="s">
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="K219" s="5" t="s">
+      <c r="K219" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="L219" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M219" s="5" t="s">
+      <c r="L219" s="4"/>
+      <c r="M219" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N219" s="5" t="s">
+      <c r="N219" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="O219" s="5"/>
-      <c r="P219" s="5"/>
-      <c r="Q219" s="5"/>
-      <c r="R219" s="5"/>
-      <c r="S219" s="5"/>
-      <c r="T219" s="5"/>
-      <c r="U219" s="5" t="s">
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="2"/>
+      <c r="T219" s="2"/>
+      <c r="U219" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="V219" s="5" t="s">
+      <c r="V219" s="2" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -20488,44 +20428,42 @@
       <c r="V223" s="5"/>
     </row>
     <row r="224" spans="1:22">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="2" t="s">
         <v>1509</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C224" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="5"/>
-      <c r="H224" s="5"/>
-      <c r="I224" s="5"/>
-      <c r="J224" s="5" t="s">
+      <c r="C224" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K224" s="5"/>
-      <c r="L224" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M224" s="5" t="s">
+      <c r="K224" s="2"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N224" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O224" s="5"/>
-      <c r="P224" s="5"/>
-      <c r="Q224" s="5"/>
-      <c r="R224" s="5"/>
-      <c r="S224" s="5"/>
-      <c r="T224" s="5"/>
-      <c r="U224" s="5" t="s">
+      <c r="N224" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O224" s="2"/>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2"/>
+      <c r="R224" s="2"/>
+      <c r="S224" s="2"/>
+      <c r="T224" s="2"/>
+      <c r="U224" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V224" s="5"/>
+      <c r="V224" s="2"/>
     </row>
     <row r="225" spans="1:22">
       <c r="A225" s="5" t="s">
@@ -20723,9 +20661,7 @@
         <v>913</v>
       </c>
       <c r="K228" s="5"/>
-      <c r="L228" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L228" s="4"/>
       <c r="M228" s="5" t="s">
         <v>67</v>
       </c>
@@ -20752,44 +20688,42 @@
       <c r="V228" s="5"/>
     </row>
     <row r="229" spans="1:22">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="2" t="s">
         <v>1514</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="B229" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="5"/>
-      <c r="H229" s="5"/>
-      <c r="I229" s="5"/>
-      <c r="J229" s="5" t="s">
+      <c r="C229" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K229" s="5"/>
-      <c r="L229" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M229" s="5" t="s">
+      <c r="K229" s="2"/>
+      <c r="L229" s="4"/>
+      <c r="M229" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N229" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O229" s="5"/>
-      <c r="P229" s="5"/>
-      <c r="Q229" s="5"/>
-      <c r="R229" s="5"/>
-      <c r="S229" s="5"/>
-      <c r="T229" s="5"/>
-      <c r="U229" s="5" t="s">
+      <c r="N229" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
+      <c r="Q229" s="2"/>
+      <c r="R229" s="2"/>
+      <c r="S229" s="2"/>
+      <c r="T229" s="2"/>
+      <c r="U229" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V229" s="5"/>
+      <c r="V229" s="2"/>
     </row>
     <row r="230" spans="1:22">
       <c r="A230" s="5" t="s">
@@ -21692,44 +21626,42 @@
       <c r="V245" s="5"/>
     </row>
     <row r="246" spans="1:22">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C246" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="5"/>
-      <c r="H246" s="5"/>
-      <c r="I246" s="5"/>
-      <c r="J246" s="5" t="s">
+      <c r="C246" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K246" s="5"/>
-      <c r="L246" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M246" s="5" t="s">
+      <c r="K246" s="2"/>
+      <c r="L246" s="4"/>
+      <c r="M246" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N246" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O246" s="5"/>
-      <c r="P246" s="5"/>
-      <c r="Q246" s="5"/>
-      <c r="R246" s="5"/>
-      <c r="S246" s="5"/>
-      <c r="T246" s="5"/>
-      <c r="U246" s="5" t="s">
+      <c r="N246" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="Q246" s="2"/>
+      <c r="R246" s="2"/>
+      <c r="S246" s="2"/>
+      <c r="T246" s="2"/>
+      <c r="U246" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V246" s="5"/>
+      <c r="V246" s="2"/>
     </row>
     <row r="247" spans="1:22">
       <c r="A247" s="5" t="s">
@@ -21975,9 +21907,7 @@
         <v>913</v>
       </c>
       <c r="K251" s="5"/>
-      <c r="L251" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L251" s="4"/>
       <c r="M251" s="5" t="s">
         <v>70</v>
       </c>
@@ -22031,9 +21961,7 @@
         <v>913</v>
       </c>
       <c r="K252" s="5"/>
-      <c r="L252" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L252" s="4"/>
       <c r="M252" s="5" t="s">
         <v>70</v>
       </c>
@@ -22087,9 +22015,7 @@
         <v>913</v>
       </c>
       <c r="K253" s="5"/>
-      <c r="L253" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L253" s="4"/>
       <c r="M253" s="5" t="s">
         <v>70</v>
       </c>
@@ -22116,44 +22042,42 @@
       <c r="V253" s="5"/>
     </row>
     <row r="254" spans="1:22">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="2" t="s">
         <v>1539</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C254" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
-      <c r="I254" s="5"/>
-      <c r="J254" s="5" t="s">
+      <c r="C254" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K254" s="5"/>
-      <c r="L254" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M254" s="5" t="s">
+      <c r="K254" s="2"/>
+      <c r="L254" s="4"/>
+      <c r="M254" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N254" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O254" s="5"/>
-      <c r="P254" s="5"/>
-      <c r="Q254" s="5"/>
-      <c r="R254" s="5"/>
-      <c r="S254" s="5"/>
-      <c r="T254" s="5"/>
-      <c r="U254" s="5" t="s">
+      <c r="N254" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O254" s="2"/>
+      <c r="P254" s="2"/>
+      <c r="Q254" s="2"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="2"/>
+      <c r="T254" s="2"/>
+      <c r="U254" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V254" s="5"/>
+      <c r="V254" s="2"/>
     </row>
     <row r="255" spans="1:22">
       <c r="A255" s="5" t="s">
@@ -22399,9 +22323,7 @@
         <v>913</v>
       </c>
       <c r="K259" s="5"/>
-      <c r="L259" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L259" s="4"/>
       <c r="M259" s="5" t="s">
         <v>71</v>
       </c>
@@ -22428,44 +22350,42 @@
       <c r="V259" s="5"/>
     </row>
     <row r="260" spans="1:22">
-      <c r="A260" s="5" t="s">
+      <c r="A260" s="2" t="s">
         <v>1545</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B260" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C260" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
-      <c r="F260" s="5"/>
-      <c r="G260" s="5"/>
-      <c r="H260" s="5"/>
-      <c r="I260" s="5"/>
-      <c r="J260" s="5" t="s">
+      <c r="C260" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
+      <c r="H260" s="2"/>
+      <c r="I260" s="2"/>
+      <c r="J260" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K260" s="5"/>
-      <c r="L260" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M260" s="5" t="s">
+      <c r="K260" s="2"/>
+      <c r="L260" s="4"/>
+      <c r="M260" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N260" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O260" s="5"/>
-      <c r="P260" s="5"/>
-      <c r="Q260" s="5"/>
-      <c r="R260" s="5"/>
-      <c r="S260" s="5"/>
-      <c r="T260" s="5"/>
-      <c r="U260" s="5" t="s">
+      <c r="N260" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O260" s="2"/>
+      <c r="P260" s="2"/>
+      <c r="Q260" s="2"/>
+      <c r="R260" s="2"/>
+      <c r="S260" s="2"/>
+      <c r="T260" s="2"/>
+      <c r="U260" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V260" s="5"/>
+      <c r="V260" s="2"/>
     </row>
     <row r="261" spans="1:22">
       <c r="A261" s="5" t="s">
@@ -22663,9 +22583,7 @@
         <v>913</v>
       </c>
       <c r="K264" s="5"/>
-      <c r="L264" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L264" s="4"/>
       <c r="M264" s="5" t="s">
         <v>72</v>
       </c>
@@ -22692,44 +22610,42 @@
       <c r="V264" s="5"/>
     </row>
     <row r="265" spans="1:22">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="2" t="s">
         <v>1550</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B265" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C265" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
-      <c r="F265" s="5"/>
-      <c r="G265" s="5"/>
-      <c r="H265" s="5"/>
-      <c r="I265" s="5"/>
-      <c r="J265" s="5" t="s">
+      <c r="C265" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
+      <c r="H265" s="2"/>
+      <c r="I265" s="2"/>
+      <c r="J265" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K265" s="5"/>
-      <c r="L265" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M265" s="5" t="s">
+      <c r="K265" s="2"/>
+      <c r="L265" s="4"/>
+      <c r="M265" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N265" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O265" s="5"/>
-      <c r="P265" s="5"/>
-      <c r="Q265" s="5"/>
-      <c r="R265" s="5"/>
-      <c r="S265" s="5"/>
-      <c r="T265" s="5"/>
-      <c r="U265" s="5" t="s">
+      <c r="N265" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O265" s="2"/>
+      <c r="P265" s="2"/>
+      <c r="Q265" s="2"/>
+      <c r="R265" s="2"/>
+      <c r="S265" s="2"/>
+      <c r="T265" s="2"/>
+      <c r="U265" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V265" s="5"/>
+      <c r="V265" s="2"/>
     </row>
     <row r="266" spans="1:22">
       <c r="A266" s="5" t="s">
@@ -22867,9 +22783,7 @@
         <v>913</v>
       </c>
       <c r="K268" s="5"/>
-      <c r="L268" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L268" s="4"/>
       <c r="M268" s="5" t="s">
         <v>73</v>
       </c>
@@ -23035,9 +22949,7 @@
         <v>917</v>
       </c>
       <c r="K271" s="5"/>
-      <c r="L271" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L271" s="4"/>
       <c r="M271" s="5" t="s">
         <v>74</v>
       </c>
@@ -23091,9 +23003,7 @@
         <v>917</v>
       </c>
       <c r="K272" s="5"/>
-      <c r="L272" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L272" s="4"/>
       <c r="M272" s="5" t="s">
         <v>74</v>
       </c>
@@ -23120,46 +23030,44 @@
       <c r="V272" s="5"/>
     </row>
     <row r="273" spans="1:22">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="2" t="s">
         <v>1557</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="B273" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C273" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D273" s="5"/>
-      <c r="E273" s="5"/>
-      <c r="F273" s="5"/>
-      <c r="G273" s="5"/>
-      <c r="H273" s="5"/>
-      <c r="I273" s="5"/>
-      <c r="J273" s="5" t="s">
+      <c r="C273" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="K273" s="5" t="s">
+      <c r="K273" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="L273" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M273" s="5" t="s">
+      <c r="L273" s="4"/>
+      <c r="M273" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N273" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O273" s="5"/>
-      <c r="P273" s="5"/>
-      <c r="Q273" s="5"/>
-      <c r="R273" s="5"/>
-      <c r="S273" s="5"/>
-      <c r="T273" s="5"/>
-      <c r="U273" s="5" t="s">
+      <c r="N273" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O273" s="2"/>
+      <c r="P273" s="2"/>
+      <c r="Q273" s="2"/>
+      <c r="R273" s="2"/>
+      <c r="S273" s="2"/>
+      <c r="T273" s="2"/>
+      <c r="U273" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="V273" s="5" t="s">
+      <c r="V273" s="2" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -23407,9 +23315,7 @@
         <v>913</v>
       </c>
       <c r="K278" s="5"/>
-      <c r="L278" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L278" s="4"/>
       <c r="M278" s="5" t="s">
         <v>76</v>
       </c>
@@ -23463,9 +23369,7 @@
         <v>913</v>
       </c>
       <c r="K279" s="5"/>
-      <c r="L279" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L279" s="4"/>
       <c r="M279" s="5" t="s">
         <v>76</v>
       </c>
@@ -23519,9 +23423,7 @@
         <v>913</v>
       </c>
       <c r="K280" s="5"/>
-      <c r="L280" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L280" s="4"/>
       <c r="M280" s="5" t="s">
         <v>76</v>
       </c>
@@ -23575,9 +23477,7 @@
         <v>913</v>
       </c>
       <c r="K281" s="5"/>
-      <c r="L281" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L281" s="4"/>
       <c r="M281" s="5" t="s">
         <v>76</v>
       </c>
@@ -23604,46 +23504,44 @@
       <c r="V281" s="5"/>
     </row>
     <row r="282" spans="1:22">
-      <c r="A282" s="5" t="s">
+      <c r="A282" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="B282" s="5" t="s">
+      <c r="B282" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C282" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D282" s="5"/>
-      <c r="E282" s="5"/>
-      <c r="F282" s="5"/>
-      <c r="G282" s="5"/>
-      <c r="H282" s="5"/>
-      <c r="I282" s="5"/>
-      <c r="J282" s="5" t="s">
+      <c r="C282" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
+      <c r="H282" s="2"/>
+      <c r="I282" s="2"/>
+      <c r="J282" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="K282" s="5" t="s">
+      <c r="K282" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="L282" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M282" s="5" t="s">
+      <c r="L282" s="4"/>
+      <c r="M282" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N282" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O282" s="5"/>
-      <c r="P282" s="5"/>
-      <c r="Q282" s="5"/>
-      <c r="R282" s="5"/>
-      <c r="S282" s="5"/>
-      <c r="T282" s="5"/>
-      <c r="U282" s="5" t="s">
+      <c r="N282" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O282" s="2"/>
+      <c r="P282" s="2"/>
+      <c r="Q282" s="2"/>
+      <c r="R282" s="2"/>
+      <c r="S282" s="2"/>
+      <c r="T282" s="2"/>
+      <c r="U282" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="V282" s="5" t="s">
+      <c r="V282" s="2" t="s">
         <v>1093</v>
       </c>
     </row>
@@ -23843,9 +23741,7 @@
         <v>913</v>
       </c>
       <c r="K286" s="5"/>
-      <c r="L286" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L286" s="4"/>
       <c r="M286" s="5" t="s">
         <v>77</v>
       </c>
@@ -23872,46 +23768,44 @@
       <c r="V286" s="5"/>
     </row>
     <row r="287" spans="1:22">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B287" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C287" s="5" t="s">
+      <c r="C287" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D287" s="5"/>
-      <c r="E287" s="5"/>
-      <c r="F287" s="5"/>
-      <c r="G287" s="5"/>
-      <c r="H287" s="5"/>
-      <c r="I287" s="5"/>
-      <c r="J287" s="5" t="s">
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
+      <c r="H287" s="2"/>
+      <c r="I287" s="2"/>
+      <c r="J287" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="K287" s="5" t="s">
+      <c r="K287" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="L287" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M287" s="5" t="s">
+      <c r="L287" s="4"/>
+      <c r="M287" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N287" s="5" t="s">
+      <c r="N287" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O287" s="5"/>
-      <c r="P287" s="5"/>
-      <c r="Q287" s="5"/>
-      <c r="R287" s="5"/>
-      <c r="S287" s="5"/>
-      <c r="T287" s="5"/>
-      <c r="U287" s="5" t="s">
+      <c r="O287" s="2"/>
+      <c r="P287" s="2"/>
+      <c r="Q287" s="2"/>
+      <c r="R287" s="2"/>
+      <c r="S287" s="2"/>
+      <c r="T287" s="2"/>
+      <c r="U287" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="V287" s="5" t="s">
+      <c r="V287" s="2" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -24420,46 +24314,44 @@
       <c r="V296" s="5"/>
     </row>
     <row r="297" spans="1:22">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="2" t="s">
         <v>1580</v>
       </c>
-      <c r="B297" s="5" t="s">
+      <c r="B297" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C297" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D297" s="5"/>
-      <c r="E297" s="5"/>
-      <c r="F297" s="5"/>
-      <c r="G297" s="5"/>
-      <c r="H297" s="5"/>
-      <c r="I297" s="5"/>
-      <c r="J297" s="5" t="s">
+      <c r="C297" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="2"/>
+      <c r="I297" s="2"/>
+      <c r="J297" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="K297" s="5" t="s">
+      <c r="K297" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="L297" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M297" s="5" t="s">
+      <c r="L297" s="4"/>
+      <c r="M297" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N297" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O297" s="5"/>
-      <c r="P297" s="5"/>
-      <c r="Q297" s="5"/>
-      <c r="R297" s="5"/>
-      <c r="S297" s="5"/>
-      <c r="T297" s="5"/>
-      <c r="U297" s="5" t="s">
+      <c r="N297" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O297" s="2"/>
+      <c r="P297" s="2"/>
+      <c r="Q297" s="2"/>
+      <c r="R297" s="2"/>
+      <c r="S297" s="2"/>
+      <c r="T297" s="2"/>
+      <c r="U297" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="V297" s="5" t="s">
+      <c r="V297" s="2" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -24601,9 +24493,7 @@
       <c r="K300" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="L300" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L300" s="4"/>
       <c r="M300" s="5" t="s">
         <v>79</v>
       </c>
@@ -24692,44 +24582,42 @@
       </c>
     </row>
     <row r="302" spans="1:22">
-      <c r="A302" s="5" t="s">
+      <c r="A302" s="2" t="s">
         <v>1585</v>
       </c>
-      <c r="B302" s="5" t="s">
+      <c r="B302" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C302" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D302" s="5"/>
-      <c r="E302" s="5"/>
-      <c r="F302" s="5"/>
-      <c r="G302" s="5"/>
-      <c r="H302" s="5"/>
-      <c r="I302" s="5"/>
-      <c r="J302" s="5" t="s">
+      <c r="C302" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+      <c r="H302" s="2"/>
+      <c r="I302" s="2"/>
+      <c r="J302" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K302" s="5"/>
-      <c r="L302" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M302" s="5" t="s">
+      <c r="K302" s="2"/>
+      <c r="L302" s="4"/>
+      <c r="M302" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N302" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O302" s="5"/>
-      <c r="P302" s="5"/>
-      <c r="Q302" s="5"/>
-      <c r="R302" s="5"/>
-      <c r="S302" s="5"/>
-      <c r="T302" s="5"/>
-      <c r="U302" s="5" t="s">
+      <c r="N302" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O302" s="2"/>
+      <c r="P302" s="2"/>
+      <c r="Q302" s="2"/>
+      <c r="R302" s="2"/>
+      <c r="S302" s="2"/>
+      <c r="T302" s="2"/>
+      <c r="U302" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V302" s="5"/>
+      <c r="V302" s="2"/>
     </row>
     <row r="303" spans="1:22">
       <c r="A303" s="5" t="s">
@@ -24975,9 +24863,7 @@
         <v>967</v>
       </c>
       <c r="K307" s="5"/>
-      <c r="L307" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L307" s="4"/>
       <c r="M307" s="5" t="s">
         <v>81</v>
       </c>
@@ -25031,9 +24917,7 @@
         <v>968</v>
       </c>
       <c r="K308" s="5"/>
-      <c r="L308" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L308" s="4"/>
       <c r="M308" s="5" t="s">
         <v>81</v>
       </c>
@@ -25087,9 +24971,7 @@
         <v>969</v>
       </c>
       <c r="K309" s="5"/>
-      <c r="L309" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L309" s="4"/>
       <c r="M309" s="5" t="s">
         <v>81</v>
       </c>
@@ -26220,46 +26102,44 @@
       <c r="V333" s="5"/>
     </row>
     <row r="334" spans="1:22">
-      <c r="A334" s="5" t="s">
+      <c r="A334" s="2" t="s">
         <v>1616</v>
       </c>
-      <c r="B334" s="5" t="s">
+      <c r="B334" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C334" s="5" t="s">
+      <c r="C334" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D334" s="5"/>
-      <c r="E334" s="5"/>
-      <c r="F334" s="5"/>
-      <c r="G334" s="5"/>
-      <c r="H334" s="5"/>
-      <c r="I334" s="5"/>
-      <c r="J334" s="5" t="s">
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
+      <c r="H334" s="2"/>
+      <c r="I334" s="2"/>
+      <c r="J334" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="K334" s="5" t="s">
+      <c r="K334" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="L334" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M334" s="5" t="s">
+      <c r="L334" s="4"/>
+      <c r="M334" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N334" s="5" t="s">
+      <c r="N334" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O334" s="5"/>
-      <c r="P334" s="5"/>
-      <c r="Q334" s="5"/>
-      <c r="R334" s="5"/>
-      <c r="S334" s="5"/>
-      <c r="T334" s="5"/>
-      <c r="U334" s="5" t="s">
+      <c r="O334" s="2"/>
+      <c r="P334" s="2"/>
+      <c r="Q334" s="2"/>
+      <c r="R334" s="2"/>
+      <c r="S334" s="2"/>
+      <c r="T334" s="2"/>
+      <c r="U334" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="V334" s="5" t="s">
+      <c r="V334" s="2" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -27055,9 +26935,7 @@
         <v>913</v>
       </c>
       <c r="K349" s="5"/>
-      <c r="L349" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L349" s="4"/>
       <c r="M349" s="5" t="s">
         <v>86</v>
       </c>
@@ -27111,9 +26989,7 @@
         <v>913</v>
       </c>
       <c r="K350" s="5"/>
-      <c r="L350" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L350" s="4"/>
       <c r="M350" s="5" t="s">
         <v>86</v>
       </c>
@@ -27167,9 +27043,7 @@
         <v>913</v>
       </c>
       <c r="K351" s="5"/>
-      <c r="L351" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L351" s="4"/>
       <c r="M351" s="5" t="s">
         <v>86</v>
       </c>
@@ -27724,44 +27598,42 @@
       <c r="V363" s="11"/>
     </row>
     <row r="364" spans="1:22">
-      <c r="A364" s="5" t="s">
+      <c r="A364" s="2" t="s">
         <v>1646</v>
       </c>
-      <c r="B364" s="5" t="s">
+      <c r="B364" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C364" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D364" s="5"/>
-      <c r="E364" s="5"/>
-      <c r="F364" s="5"/>
-      <c r="G364" s="5"/>
-      <c r="H364" s="5"/>
-      <c r="I364" s="5"/>
-      <c r="J364" s="5" t="s">
+      <c r="C364" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="2"/>
+      <c r="G364" s="2"/>
+      <c r="H364" s="2"/>
+      <c r="I364" s="2"/>
+      <c r="J364" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K364" s="5"/>
-      <c r="L364" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="M364" s="5" t="s">
+      <c r="K364" s="2"/>
+      <c r="L364" s="4"/>
+      <c r="M364" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="N364" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="O364" s="5"/>
-      <c r="P364" s="5"/>
-      <c r="Q364" s="5"/>
-      <c r="R364" s="5"/>
-      <c r="S364" s="5"/>
-      <c r="T364" s="5"/>
-      <c r="U364" s="5" t="s">
+      <c r="N364" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O364" s="2"/>
+      <c r="P364" s="2"/>
+      <c r="Q364" s="2"/>
+      <c r="R364" s="2"/>
+      <c r="S364" s="2"/>
+      <c r="T364" s="2"/>
+      <c r="U364" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="V364" s="5"/>
+      <c r="V364" s="2"/>
     </row>
     <row r="365" spans="1:22">
       <c r="A365" s="5" t="s">
@@ -28007,9 +27879,7 @@
         <v>983</v>
       </c>
       <c r="K369" s="5"/>
-      <c r="L369" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L369" s="4"/>
       <c r="M369" s="5" t="s">
         <v>57</v>
       </c>
@@ -28063,9 +27933,7 @@
         <v>984</v>
       </c>
       <c r="K370" s="5"/>
-      <c r="L370" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L370" s="4"/>
       <c r="M370" s="5" t="s">
         <v>57</v>
       </c>
@@ -28119,9 +27987,7 @@
         <v>985</v>
       </c>
       <c r="K371" s="5"/>
-      <c r="L371" s="7" t="s">
-        <v>1164</v>
-      </c>
+      <c r="L371" s="4"/>
       <c r="M371" s="5" t="s">
         <v>57</v>
       </c>
